--- a/Config/Datas/tables.xlsx
+++ b/Config/Datas/tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>##</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -119,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +124,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -609,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,33 +608,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,101 +647,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,22 +757,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1091,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1252,9 +1233,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1267,9 +1246,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1282,9 +1259,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1297,34 +1272,30 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1335,11 +1306,11 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1349,11 +1320,11 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1363,10 +1334,10 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1377,11 +1348,11 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1391,10 +1362,10 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1405,11 +1376,11 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1419,10 +1390,10 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="2:12">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1432,10 +1403,10 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1446,11 +1417,11 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1466,9 +1437,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1478,7 +1447,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1488,10 +1457,10 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="2:12">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1501,11 +1470,11 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1515,10 +1484,10 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="2:12">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1528,10 +1497,10 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="2:12">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1541,10 +1510,10 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="2:12">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1554,10 +1523,10 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="2:12">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>

--- a/Config/Datas/tables.xlsx
+++ b/Config/Datas/tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>##</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>TbStartProcess</t>
+  </si>
+  <si>
+    <t>StartProcess</t>
+  </si>
+  <si>
+    <t>StartServer/StartProcess.xlsx</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1103,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1214,13 +1226,23 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>

--- a/Config/Datas/tables.xlsx
+++ b/Config/Datas/tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>##</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>StartServer/StartProcess.xlsx</t>
+  </si>
+  <si>
+    <t>TbDatabase</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>StartServer/Database.xlsx</t>
   </si>
   <si>
     <t>s</t>
@@ -1103,7 +1112,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1240,22 +1249,30 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="2:12">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>

--- a/Config/Datas/tables.xlsx
+++ b/Config/Datas/tables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760B1E79-6FE1-40C0-B0A6-A4C9D7F89B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>##</t>
   </si>
@@ -122,19 +128,17 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,151 +154,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,188 +181,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -511,265 +205,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="46" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="46" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -790,62 +245,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="着色 6" xfId="1" builtinId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1103,34 +518,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="12" max="12" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,32 +559,35 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1181,30 +600,31 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:12">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,28 +633,29 @@
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:12">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1244,18 +665,19 @@
       <c r="D4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="2:12">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1265,20 +687,21 @@
       <c r="D5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="2:12">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1290,8 +713,9 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:12">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1303,8 +727,9 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" customHeight="1" spans="2:12">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1316,26 +741,28 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:12">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1343,41 +770,44 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:12">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:12">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:12">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1385,27 +815,29 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:12">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:12">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1413,40 +845,43 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:12">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:12">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:12">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1454,22 +889,24 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:12">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:12">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1481,100 +918,108 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-    </row>
-    <row r="21" customHeight="1" spans="2:12">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-    </row>
-    <row r="22" customHeight="1" spans="2:12">
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:12">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:12">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:12">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:12">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:12">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:12">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1586,8 +1031,9 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:12">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1599,8 +1045,9 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" customHeight="1" spans="2:12">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1612,10 +1059,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Config/Datas/tables.xlsx
+++ b/Config/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760B1E79-6FE1-40C0-B0A6-A4C9D7F89B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399A2D0-976B-48F8-8471-99C81E07FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>##</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC_Buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game/Buff.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,18 +162,28 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -214,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +268,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +552,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -702,11 +727,19 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>

--- a/Config/Datas/tables.xlsx
+++ b/Config/Datas/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399A2D0-976B-48F8-8471-99C81E07FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214E890E-0B9D-446A-BE03-F2CE307810EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>##</t>
   </si>
@@ -142,7 +142,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Game/Buff.xlsx</t>
+    <t>TbSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC_Skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game/Skill.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff@Game/Buff.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +196,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -228,15 +249,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,9 +297,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="着色 6" xfId="1" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,8 +765,8 @@
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="11" t="s">
-        <v>39</v>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -749,11 +777,19 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1096,6 +1132,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{BF78246C-765A-4585-919D-89C393AB0342}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
